--- a/dcd_compsr_offset_aging_she_tmi_eol_stress_tsmc2p_deg.xlsx
+++ b/dcd_compsr_offset_aging_she_tmi_eol_stress_tsmc2p_deg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="36">
   <si>
     <t>Parameter</t>
   </si>
@@ -42,7 +42,7 @@
     <t>didsat_HCI_BTI</t>
   </si>
   <si>
-    <t>xtop.xi56.xmps</t>
+    <t>xtop.xi56.xmpi1</t>
   </si>
   <si>
     <t>pch_lvtll_mac.4</t>
@@ -51,16 +51,13 @@
     <t>didlin_HCI_BTI</t>
   </si>
   <si>
-    <t>xtop.xi56.xmp12</t>
+    <t>xtop.xcomp.xclampleft2.xm1</t>
+  </si>
+  <si>
+    <t>pch_ulvt_mac.2</t>
   </si>
   <si>
     <t>didsat_HCI</t>
-  </si>
-  <si>
-    <t>xtop.xcomp.xclampright2.xm2</t>
-  </si>
-  <si>
-    <t>pch_ulvt_mac.2</t>
   </si>
   <si>
     <t>didlin_HCI</t>
@@ -69,31 +66,43 @@
     <t>dvtlin_BTI</t>
   </si>
   <si>
-    <t>xtop.xcomp.xclampright.xm1</t>
+    <t>xtop.xi56.xmpi99a</t>
   </si>
   <si>
-    <t>xtop.xpreamp.xmpwrgate[0].xm1</t>
+    <t>xtop.xpreamp.xmpwrgate&lt;0&gt;.xm1</t>
   </si>
   <si>
-    <t>xtop.xpreamp.xmpwrgate[0].xm2</t>
+    <t>pch_elvt_mac.2</t>
   </si>
   <si>
-    <t>xtop.xpreamp.xmpwrgate[1].xm1</t>
+    <t>xtop.xpreamp.xmpwrgate&lt;1&gt;.xm1</t>
   </si>
   <si>
-    <t>xtop.xpreamp.xmpwrgate[1].xm2</t>
+    <t>xtop.xpreamp.xmpwrgate&lt;1&gt;.xm2</t>
+  </si>
+  <si>
+    <t>xtop.xpreamp.xmpwrgate&lt;2&gt;.xm1</t>
+  </si>
+  <si>
+    <t>xtop.xpreamp.xmpwrgate&lt;2&gt;.xm2</t>
+  </si>
+  <si>
+    <t>xtop.xpreamp.xmpwrgate&lt;3&gt;.xm1</t>
+  </si>
+  <si>
+    <t>xtop.xpreamp.xmpwrgate&lt;3&gt;.xm2</t>
+  </si>
+  <si>
+    <t>xtop.xpreamp.xmpwrgate&lt;4&gt;.xm1</t>
   </si>
   <si>
     <t>xtop.xi56.xmpr</t>
   </si>
   <si>
-    <t>xtop.xi56.xmpi99</t>
+    <t>xtop.xi56.xmps</t>
   </si>
   <si>
-    <t>xtop.xi56.xmpi2</t>
-  </si>
-  <si>
-    <t>xtop.xcomp.xclampright2.xm1</t>
+    <t>xtop.xcomp.xclampright.xm1</t>
   </si>
   <si>
     <t>xtop.xcomp.xclampright.xm2</t>
@@ -105,37 +114,19 @@
     <t>xtop.xcomp.xclampleft.xm2</t>
   </si>
   <si>
-    <t>xtop.xi56.xmpi99a</t>
+    <t>xtop.xi56.xmp9&lt;0&gt;</t>
   </si>
   <si>
-    <t>xtop.xi56.xmpi1</t>
+    <t>xtop.xi56.xmp9&lt;1&gt;</t>
   </si>
   <si>
-    <t>xtop.xi56.xmp9[0]</t>
+    <t>xtop.xpreamp.xmpwrgate&lt;0&gt;.xm2</t>
   </si>
   <si>
-    <t>xtop.xi56.xmp9[1]</t>
+    <t>xtop.xcomp.xclampright2.xm1</t>
   </si>
   <si>
-    <t>xtop.xpreamp.xp458[0].xm1</t>
-  </si>
-  <si>
-    <t>pch_lvt_mac.2</t>
-  </si>
-  <si>
-    <t>xtop.xpreamp.xp458[0].xm2</t>
-  </si>
-  <si>
-    <t>xtop.xpreamp.xp458[1].xm1</t>
-  </si>
-  <si>
-    <t>xtop.xpreamp.xp458[1].xm2</t>
-  </si>
-  <si>
-    <t>xtop.xcomp.xclampleft2.xm1</t>
-  </si>
-  <si>
-    <t>xtop.xcomp.xclampleft2.xm2</t>
+    <t>xtop.xcomp.xclampright2.xm2</t>
   </si>
 </sst>
 </file>
@@ -524,13 +515,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>8.734999999999999</v>
+        <v>8.571</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -547,64 +538,64 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>5.589</v>
+        <v>5.782</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2.055</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1.766</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2.054</v>
+        <v>2.389</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>150</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>34.1</v>
+        <v>34.18</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -640,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -682,13 +673,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -727,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -769,10 +760,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -811,10 +802,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -822,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>33.84</v>
+        <v>34.14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7.011</v>
+        <v>8.561999999999999</v>
       </c>
       <c r="F2">
-        <v>3.696</v>
+        <v>4.718</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -848,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>33.84</v>
+        <v>34.09</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>7.011</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F3">
-        <v>3.696</v>
+        <v>4.711</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -874,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>33.84</v>
+        <v>33.9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>7.011</v>
+        <v>6.006</v>
       </c>
       <c r="F4">
-        <v>3.696</v>
+        <v>3.165</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -900,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>33.84</v>
+        <v>33.9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>7.011</v>
+        <v>6.006</v>
       </c>
       <c r="F5">
-        <v>3.696</v>
+        <v>3.165</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -926,25 +917,25 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>32.7</v>
+        <v>33.9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>8.503</v>
+        <v>6.006</v>
       </c>
       <c r="F6">
-        <v>4.874</v>
+        <v>3.165</v>
       </c>
       <c r="G6">
-        <v>0.3034</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -952,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>31.98</v>
+        <v>33.9</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>8.349</v>
+        <v>6.006</v>
       </c>
       <c r="F7">
-        <v>4.805</v>
+        <v>3.165</v>
       </c>
       <c r="G7">
-        <v>0.3287</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.3856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -978,25 +969,25 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>31.42</v>
+        <v>33.9</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>8.068</v>
+        <v>6.006</v>
       </c>
       <c r="F8">
-        <v>4.563</v>
+        <v>3.165</v>
       </c>
       <c r="G8">
-        <v>0.1884</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.2211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1004,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>31.39</v>
+        <v>33.9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>7.93</v>
+        <v>6.006</v>
       </c>
       <c r="F9">
-        <v>4.406</v>
+        <v>3.165</v>
       </c>
       <c r="G9">
-        <v>0.05784</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.06784999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1030,25 +1021,25 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>31.24</v>
+        <v>33.9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>7.136</v>
+        <v>6.006</v>
       </c>
       <c r="F10">
-        <v>4.182</v>
+        <v>3.165</v>
       </c>
       <c r="G10">
-        <v>0.6627</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.7705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1056,25 +1047,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>31.24</v>
+        <v>33.9</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>7.136</v>
+        <v>6.006</v>
       </c>
       <c r="F11">
-        <v>4.182</v>
+        <v>3.165</v>
       </c>
       <c r="G11">
-        <v>0.6627</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.7705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1082,19 +1073,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>7.065</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F12">
-        <v>3.724</v>
+        <v>4.71</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1108,19 +1099,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>7.065</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F13">
-        <v>3.724</v>
+        <v>4.71</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1134,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>7.065</v>
@@ -1160,13 +1151,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>7.065</v>
@@ -1186,19 +1177,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>34.09</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F16">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1212,19 +1203,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>34.09</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F17">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1238,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>34.08</v>
@@ -1264,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>34.08</v>
@@ -1290,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>34.08</v>
@@ -1299,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>8.547000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="F20">
         <v>4.709</v>
@@ -1316,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>34.08</v>
@@ -1325,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>8.547000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="F21">
         <v>4.709</v>
@@ -1342,19 +1333,19 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>33.84</v>
+        <v>34.14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>7.011</v>
+        <v>8.561999999999999</v>
       </c>
       <c r="F22">
-        <v>3.696</v>
+        <v>4.718</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1368,19 +1359,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>33.84</v>
+        <v>34.09</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>7.011</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F23">
-        <v>3.696</v>
+        <v>4.711</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1394,19 +1385,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>33.84</v>
+        <v>33.9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>7.011</v>
+        <v>6.006</v>
       </c>
       <c r="F24">
-        <v>3.696</v>
+        <v>3.165</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1420,19 +1411,19 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>33.84</v>
+        <v>33.9</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>7.011</v>
+        <v>6.006</v>
       </c>
       <c r="F25">
-        <v>3.696</v>
+        <v>3.165</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1446,25 +1437,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>32.7</v>
+        <v>33.9</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>8.503</v>
+        <v>6.006</v>
       </c>
       <c r="F26">
-        <v>4.874</v>
+        <v>3.165</v>
       </c>
       <c r="G26">
-        <v>0.3034</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1472,25 +1463,25 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>31.98</v>
+        <v>33.9</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>8.349</v>
+        <v>6.006</v>
       </c>
       <c r="F27">
-        <v>4.805</v>
+        <v>3.165</v>
       </c>
       <c r="G27">
-        <v>0.3287</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.3856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1498,25 +1489,25 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>31.42</v>
+        <v>33.9</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>8.068</v>
+        <v>6.006</v>
       </c>
       <c r="F28">
-        <v>4.563</v>
+        <v>3.165</v>
       </c>
       <c r="G28">
-        <v>0.1884</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.2211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1524,25 +1515,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>31.39</v>
+        <v>33.9</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>7.93</v>
+        <v>6.006</v>
       </c>
       <c r="F29">
-        <v>4.406</v>
+        <v>3.165</v>
       </c>
       <c r="G29">
-        <v>0.05784</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.06784999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1550,25 +1541,25 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>31.24</v>
+        <v>33.9</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
-        <v>7.136</v>
+        <v>6.006</v>
       </c>
       <c r="F30">
-        <v>4.182</v>
+        <v>3.165</v>
       </c>
       <c r="G30">
-        <v>0.6627</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.7705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1576,25 +1567,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>31.24</v>
+        <v>33.9</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>7.136</v>
+        <v>6.006</v>
       </c>
       <c r="F31">
-        <v>4.182</v>
+        <v>3.165</v>
       </c>
       <c r="G31">
-        <v>0.6627</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.7705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1602,19 +1593,19 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>7.065</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F32">
-        <v>3.724</v>
+        <v>4.71</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1628,19 +1619,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>7.065</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F33">
-        <v>3.724</v>
+        <v>4.71</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1654,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>7.065</v>
@@ -1680,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>7.065</v>
@@ -1706,19 +1697,19 @@
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>34.09</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F36">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1732,19 +1723,19 @@
         <v>3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>34.09</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F37">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1758,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>34.08</v>
@@ -1784,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>34.08</v>
@@ -1810,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>34.08</v>
@@ -1819,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>8.547000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="F40">
         <v>4.709</v>
@@ -1836,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>34.08</v>
@@ -1845,7 +1836,7 @@
         <v>8</v>
       </c>
       <c r="E41">
-        <v>8.547000000000001</v>
+        <v>8.545999999999999</v>
       </c>
       <c r="F41">
         <v>4.709</v>
@@ -1862,19 +1853,19 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>33.92</v>
+        <v>34.18</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>7.03</v>
+        <v>8.571</v>
       </c>
       <c r="F42">
-        <v>3.705</v>
+        <v>4.723</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1888,19 +1879,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>33.92</v>
+        <v>34.1</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>7.03</v>
+        <v>8.552</v>
       </c>
       <c r="F43">
-        <v>3.705</v>
+        <v>4.712</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1914,19 +1905,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>33.92</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>7.03</v>
+        <v>6.025</v>
       </c>
       <c r="F44">
-        <v>3.705</v>
+        <v>3.175</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1940,19 +1931,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>33.92</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>7.03</v>
+        <v>6.025</v>
       </c>
       <c r="F45">
-        <v>3.705</v>
+        <v>3.175</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1966,25 +1957,25 @@
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46">
-        <v>32.73</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E46">
-        <v>8.673</v>
+        <v>6.025</v>
       </c>
       <c r="F46">
-        <v>5.068</v>
+        <v>3.175</v>
       </c>
       <c r="G46">
-        <v>0.4642</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.5446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1992,25 +1983,25 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C47">
-        <v>31.75</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>8.529999999999999</v>
+        <v>6.025</v>
       </c>
       <c r="F47">
-        <v>5.053</v>
+        <v>3.175</v>
       </c>
       <c r="G47">
-        <v>0.5679</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.6662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2018,25 +2009,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>31.7</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>8.041</v>
+        <v>6.025</v>
       </c>
       <c r="F48">
-        <v>4.487</v>
+        <v>3.175</v>
       </c>
       <c r="G48">
-        <v>0.0912</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2044,25 +2035,25 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49">
-        <v>31.62</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>8.215</v>
+        <v>6.025</v>
       </c>
       <c r="F49">
-        <v>4.705</v>
+        <v>3.175</v>
       </c>
       <c r="G49">
-        <v>0.2859</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.3353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2070,19 +2061,19 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C50">
-        <v>31.19</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>7.473</v>
+        <v>6.025</v>
       </c>
       <c r="F50">
-        <v>3.952</v>
+        <v>3.175</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2096,19 +2087,19 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
         <v>34</v>
       </c>
-      <c r="C51">
-        <v>31.19</v>
-      </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>7.473</v>
+        <v>6.025</v>
       </c>
       <c r="F51">
-        <v>3.952</v>
+        <v>3.175</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2122,7 +2113,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>34.1</v>
@@ -2148,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>34.1</v>
@@ -2174,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>34.1</v>
@@ -2200,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>34.1</v>
@@ -2252,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>34.1</v>
@@ -2278,13 +2269,13 @@
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>34.1</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58">
         <v>7.065</v>
@@ -2304,13 +2295,13 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>34.1</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E59">
         <v>7.065</v>
@@ -2330,13 +2321,13 @@
         <v>5</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>34.1</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E60">
         <v>7.065</v>
@@ -2356,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C61">
         <v>34.1</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>7.065</v>
@@ -2382,19 +2373,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>33.92</v>
+        <v>34.18</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>7.03</v>
+        <v>8.571</v>
       </c>
       <c r="F62">
-        <v>3.705</v>
+        <v>4.723</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2408,19 +2399,19 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>33.92</v>
+        <v>34.1</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>7.03</v>
+        <v>8.552</v>
       </c>
       <c r="F63">
-        <v>3.705</v>
+        <v>4.712</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2434,19 +2425,19 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>33.92</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>7.03</v>
+        <v>6.025</v>
       </c>
       <c r="F64">
-        <v>3.705</v>
+        <v>3.175</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2460,19 +2451,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C65">
-        <v>33.92</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>7.03</v>
+        <v>6.025</v>
       </c>
       <c r="F65">
-        <v>3.705</v>
+        <v>3.175</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2486,25 +2477,25 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C66">
-        <v>32.73</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>8.673</v>
+        <v>6.025</v>
       </c>
       <c r="F66">
-        <v>5.068</v>
+        <v>3.175</v>
       </c>
       <c r="G66">
-        <v>0.4642</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.5446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2512,25 +2503,25 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>31.75</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>8.529999999999999</v>
+        <v>6.025</v>
       </c>
       <c r="F67">
-        <v>5.053</v>
+        <v>3.175</v>
       </c>
       <c r="G67">
-        <v>0.5679</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>0.6662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2538,25 +2529,25 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>31.7</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E68">
-        <v>8.041</v>
+        <v>6.025</v>
       </c>
       <c r="F68">
-        <v>4.487</v>
+        <v>3.175</v>
       </c>
       <c r="G68">
-        <v>0.0912</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2564,25 +2555,25 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>31.62</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E69">
-        <v>8.215</v>
+        <v>6.025</v>
       </c>
       <c r="F69">
-        <v>4.705</v>
+        <v>3.175</v>
       </c>
       <c r="G69">
-        <v>0.2859</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0.3353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2590,19 +2581,19 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>31.19</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E70">
-        <v>7.473</v>
+        <v>6.025</v>
       </c>
       <c r="F70">
-        <v>3.952</v>
+        <v>3.175</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2616,19 +2607,19 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
         <v>34</v>
       </c>
-      <c r="C71">
-        <v>31.19</v>
-      </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>7.473</v>
+        <v>6.025</v>
       </c>
       <c r="F71">
-        <v>3.952</v>
+        <v>3.175</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2642,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>34.1</v>
@@ -2668,7 +2659,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73">
         <v>34.1</v>
@@ -2694,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>34.1</v>
@@ -2720,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>34.1</v>
@@ -2772,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>34.1</v>
@@ -2798,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>34.1</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E78">
         <v>7.065</v>
@@ -2824,13 +2815,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C79">
         <v>34.1</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E79">
         <v>7.065</v>
@@ -2850,13 +2841,13 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C80">
         <v>34.1</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E80">
         <v>7.065</v>
@@ -2876,13 +2867,13 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C81">
         <v>34.1</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E81">
         <v>7.065</v>
@@ -2902,19 +2893,19 @@
         <v>8</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>33.92</v>
+        <v>34.17</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>7.029</v>
+        <v>8.568</v>
       </c>
       <c r="F82">
-        <v>3.705</v>
+        <v>4.721</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2928,19 +2919,19 @@
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C83">
-        <v>33.92</v>
+        <v>34.1</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>7.029</v>
+        <v>8.551</v>
       </c>
       <c r="F83">
-        <v>3.705</v>
+        <v>4.712</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2954,19 +2945,19 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C84">
-        <v>33.92</v>
+        <v>33.99</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>7.029</v>
+        <v>8.523</v>
       </c>
       <c r="F84">
-        <v>3.705</v>
+        <v>4.696</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2980,19 +2971,19 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C85">
-        <v>33.92</v>
+        <v>33.99</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>7.029</v>
+        <v>8.523</v>
       </c>
       <c r="F85">
-        <v>3.705</v>
+        <v>4.696</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3006,25 +2997,25 @@
         <v>8</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>32.26</v>
+        <v>33.99</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>8.734999999999999</v>
+        <v>6.022</v>
       </c>
       <c r="F86">
-        <v>5.214</v>
+        <v>3.174</v>
       </c>
       <c r="G86">
-        <v>0.6439</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0.7554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3032,25 +3023,25 @@
         <v>8</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C87">
-        <v>32.16</v>
+        <v>33.99</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E87">
-        <v>8.711</v>
+        <v>6.022</v>
       </c>
       <c r="F87">
-        <v>5.202</v>
+        <v>3.174</v>
       </c>
       <c r="G87">
-        <v>0.6466</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>0.7586000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3058,19 +3049,19 @@
         <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C88">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E88">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F88">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3084,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C89">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F89">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3110,19 +3101,19 @@
         <v>8</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E90">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F90">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3136,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C91">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F91">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3162,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C92">
         <v>34.1</v>
@@ -3188,7 +3179,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>34.1</v>
@@ -3214,19 +3205,19 @@
         <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>7.065</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F94">
-        <v>3.724</v>
+        <v>4.711</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3240,19 +3231,19 @@
         <v>9</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E95">
-        <v>7.065</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F95">
-        <v>3.724</v>
+        <v>4.711</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3266,13 +3257,13 @@
         <v>9</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E96">
         <v>7.065</v>
@@ -3292,13 +3283,13 @@
         <v>9</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C97">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E97">
         <v>7.065</v>
@@ -3318,19 +3309,19 @@
         <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C98">
         <v>34.09</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F98">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3344,19 +3335,19 @@
         <v>9</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C99">
         <v>34.09</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F99">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3370,19 +3361,19 @@
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C100">
-        <v>34.09</v>
+        <v>34.08</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>7.063</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="F100">
-        <v>3.723</v>
+        <v>4.71</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3396,19 +3387,19 @@
         <v>9</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C101">
-        <v>34.09</v>
+        <v>34.08</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E101">
-        <v>7.063</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="F101">
-        <v>3.723</v>
+        <v>4.71</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3422,19 +3413,19 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C102">
-        <v>33.92</v>
+        <v>34.17</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>7.029</v>
+        <v>8.568</v>
       </c>
       <c r="F102">
-        <v>3.705</v>
+        <v>4.721</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3448,19 +3439,19 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>33.92</v>
+        <v>34.1</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>7.029</v>
+        <v>8.551</v>
       </c>
       <c r="F103">
-        <v>3.705</v>
+        <v>4.712</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3474,19 +3465,19 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C104">
-        <v>33.92</v>
+        <v>33.99</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>7.029</v>
+        <v>8.523</v>
       </c>
       <c r="F104">
-        <v>3.705</v>
+        <v>4.696</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3500,19 +3491,19 @@
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C105">
-        <v>33.92</v>
+        <v>33.99</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>7.029</v>
+        <v>8.523</v>
       </c>
       <c r="F105">
-        <v>3.705</v>
+        <v>4.696</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3526,25 +3517,25 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>32.26</v>
+        <v>33.99</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E106">
-        <v>8.734999999999999</v>
+        <v>6.022</v>
       </c>
       <c r="F106">
-        <v>5.214</v>
+        <v>3.174</v>
       </c>
       <c r="G106">
-        <v>0.6439</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0.7554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3552,25 +3543,25 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>32.16</v>
+        <v>33.99</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>8.711</v>
+        <v>6.022</v>
       </c>
       <c r="F107">
-        <v>5.202</v>
+        <v>3.174</v>
       </c>
       <c r="G107">
-        <v>0.6466</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>0.7586000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3578,19 +3569,19 @@
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F108">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3604,19 +3595,19 @@
         <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F109">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3630,19 +3621,19 @@
         <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E110">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F110">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3656,19 +3647,19 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>31.12</v>
+        <v>33.99</v>
       </c>
       <c r="D111" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E111">
-        <v>7.455</v>
+        <v>6.022</v>
       </c>
       <c r="F111">
-        <v>3.943</v>
+        <v>3.174</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3682,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C112">
         <v>34.1</v>
@@ -3708,7 +3699,7 @@
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C113">
         <v>34.1</v>
@@ -3734,19 +3725,19 @@
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>7.065</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F114">
-        <v>3.724</v>
+        <v>4.711</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3760,19 +3751,19 @@
         <v>11</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>7.065</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F115">
-        <v>3.724</v>
+        <v>4.711</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3786,13 +3777,13 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C116">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E116">
         <v>7.065</v>
@@ -3812,13 +3803,13 @@
         <v>11</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C117">
-        <v>34.1</v>
+        <v>34.09</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E117">
         <v>7.065</v>
@@ -3838,19 +3829,19 @@
         <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C118">
         <v>34.09</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E118">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F118">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3864,19 +3855,19 @@
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>34.09</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>8.550000000000001</v>
+        <v>7.065</v>
       </c>
       <c r="F119">
-        <v>4.711</v>
+        <v>3.724</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3890,19 +3881,19 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C120">
-        <v>34.09</v>
+        <v>34.08</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>7.063</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="F120">
-        <v>3.723</v>
+        <v>4.71</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3916,19 +3907,19 @@
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C121">
-        <v>34.09</v>
+        <v>34.08</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>7.063</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="F121">
-        <v>3.723</v>
+        <v>4.71</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3942,19 +3933,19 @@
         <v>12</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>33.88</v>
+        <v>34.16</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E122">
-        <v>7.021</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="F122">
-        <v>3.7</v>
+        <v>4.72</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3968,19 +3959,19 @@
         <v>12</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C123">
-        <v>33.88</v>
+        <v>34.09</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>7.021</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F123">
-        <v>3.7</v>
+        <v>4.711</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3994,19 +3985,19 @@
         <v>12</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>33.88</v>
+        <v>33.91</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E124">
-        <v>7.021</v>
+        <v>6.009</v>
       </c>
       <c r="F124">
-        <v>3.7</v>
+        <v>3.167</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4020,19 +4011,19 @@
         <v>12</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C125">
-        <v>33.88</v>
+        <v>33.91</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>7.021</v>
+        <v>6.009</v>
       </c>
       <c r="F125">
-        <v>3.7</v>
+        <v>3.167</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4046,25 +4037,25 @@
         <v>12</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C126">
-        <v>33.74</v>
+        <v>33.91</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E126">
-        <v>8.484</v>
+        <v>6.009</v>
       </c>
       <c r="F126">
-        <v>4.689</v>
+        <v>3.167</v>
       </c>
       <c r="G126">
-        <v>0.02356</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0.02764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4072,25 +4063,25 @@
         <v>12</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C127">
-        <v>33.73</v>
+        <v>33.91</v>
       </c>
       <c r="D127" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E127">
-        <v>8.576000000000001</v>
+        <v>6.009</v>
       </c>
       <c r="F127">
-        <v>4.798</v>
+        <v>3.167</v>
       </c>
       <c r="G127">
-        <v>0.1168</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4098,25 +4089,25 @@
         <v>12</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128">
-        <v>33.69</v>
+        <v>33.91</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E128">
-        <v>8.577999999999999</v>
+        <v>6.009</v>
       </c>
       <c r="F128">
-        <v>4.807</v>
+        <v>3.167</v>
       </c>
       <c r="G128">
-        <v>0.1288</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>0.1511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4124,19 +4115,19 @@
         <v>12</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C129">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E129">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F129">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4150,19 +4141,19 @@
         <v>12</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C130">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E130">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F130">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4176,19 +4167,19 @@
         <v>12</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C131">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E131">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F131">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4202,13 +4193,13 @@
         <v>13</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C132">
         <v>34.1</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E132">
         <v>7.065</v>
@@ -4228,13 +4219,13 @@
         <v>13</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C133">
         <v>34.1</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133">
         <v>7.065</v>
@@ -4254,13 +4245,13 @@
         <v>13</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C134">
         <v>34.1</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134">
         <v>7.065</v>
@@ -4280,13 +4271,13 @@
         <v>13</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C135">
         <v>34.1</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E135">
         <v>7.065</v>
@@ -4306,7 +4297,7 @@
         <v>13</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C136">
         <v>34.09</v>
@@ -4315,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="E136">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F136">
         <v>4.711</v>
@@ -4332,7 +4323,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C137">
         <v>34.09</v>
@@ -4341,7 +4332,7 @@
         <v>8</v>
       </c>
       <c r="E137">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F137">
         <v>4.711</v>
@@ -4358,7 +4349,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C138">
         <v>34.09</v>
@@ -4367,7 +4358,7 @@
         <v>8</v>
       </c>
       <c r="E138">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F138">
         <v>4.711</v>
@@ -4384,7 +4375,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C139">
         <v>34.09</v>
@@ -4393,7 +4384,7 @@
         <v>8</v>
       </c>
       <c r="E139">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F139">
         <v>4.711</v>
@@ -4410,19 +4401,19 @@
         <v>13</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C140">
         <v>34.09</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E140">
-        <v>7.065</v>
+        <v>7.064</v>
       </c>
       <c r="F140">
-        <v>3.724</v>
+        <v>3.723</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4436,19 +4427,19 @@
         <v>13</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C141">
         <v>34.09</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>7.065</v>
+        <v>7.064</v>
       </c>
       <c r="F141">
-        <v>3.724</v>
+        <v>3.723</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4462,19 +4453,19 @@
         <v>14</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>33.88</v>
+        <v>34.16</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>7.021</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="F142">
-        <v>3.7</v>
+        <v>4.72</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4488,19 +4479,19 @@
         <v>14</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>33.88</v>
+        <v>34.09</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>7.021</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F143">
-        <v>3.7</v>
+        <v>4.711</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4514,19 +4505,19 @@
         <v>14</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>33.88</v>
+        <v>33.91</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>7.021</v>
+        <v>6.009</v>
       </c>
       <c r="F144">
-        <v>3.7</v>
+        <v>3.167</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4540,19 +4531,19 @@
         <v>14</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C145">
-        <v>33.88</v>
+        <v>33.91</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E145">
-        <v>7.021</v>
+        <v>6.009</v>
       </c>
       <c r="F145">
-        <v>3.7</v>
+        <v>3.167</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4566,25 +4557,25 @@
         <v>14</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>33.74</v>
+        <v>33.91</v>
       </c>
       <c r="D146" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E146">
-        <v>8.484</v>
+        <v>6.009</v>
       </c>
       <c r="F146">
-        <v>4.689</v>
+        <v>3.167</v>
       </c>
       <c r="G146">
-        <v>0.02356</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>0.02764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4592,25 +4583,25 @@
         <v>14</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>33.73</v>
+        <v>33.91</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E147">
-        <v>8.576000000000001</v>
+        <v>6.009</v>
       </c>
       <c r="F147">
-        <v>4.798</v>
+        <v>3.167</v>
       </c>
       <c r="G147">
-        <v>0.1168</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4618,25 +4609,25 @@
         <v>14</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>33.69</v>
+        <v>33.91</v>
       </c>
       <c r="D148" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E148">
-        <v>8.577999999999999</v>
+        <v>6.009</v>
       </c>
       <c r="F148">
-        <v>4.807</v>
+        <v>3.167</v>
       </c>
       <c r="G148">
-        <v>0.1288</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>0.1511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4644,19 +4635,19 @@
         <v>14</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D149" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E149">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F149">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4670,19 +4661,19 @@
         <v>14</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D150" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E150">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F150">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4696,19 +4687,19 @@
         <v>14</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>31.49</v>
+        <v>33.91</v>
       </c>
       <c r="D151" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E151">
-        <v>7.544</v>
+        <v>6.009</v>
       </c>
       <c r="F151">
-        <v>3.99</v>
+        <v>3.167</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4722,13 +4713,13 @@
         <v>15</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C152">
         <v>34.1</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152">
         <v>7.065</v>
@@ -4748,13 +4739,13 @@
         <v>15</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C153">
         <v>34.1</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E153">
         <v>7.065</v>
@@ -4774,13 +4765,13 @@
         <v>15</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C154">
         <v>34.1</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E154">
         <v>7.065</v>
@@ -4800,13 +4791,13 @@
         <v>15</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C155">
         <v>34.1</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E155">
         <v>7.065</v>
@@ -4826,7 +4817,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C156">
         <v>34.09</v>
@@ -4835,7 +4826,7 @@
         <v>8</v>
       </c>
       <c r="E156">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F156">
         <v>4.711</v>
@@ -4852,7 +4843,7 @@
         <v>15</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>34.09</v>
@@ -4861,7 +4852,7 @@
         <v>8</v>
       </c>
       <c r="E157">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F157">
         <v>4.711</v>
@@ -4878,7 +4869,7 @@
         <v>15</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C158">
         <v>34.09</v>
@@ -4887,7 +4878,7 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F158">
         <v>4.711</v>
@@ -4904,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C159">
         <v>34.09</v>
@@ -4913,7 +4904,7 @@
         <v>8</v>
       </c>
       <c r="E159">
-        <v>8.550000000000001</v>
+        <v>8.548999999999999</v>
       </c>
       <c r="F159">
         <v>4.711</v>
@@ -4930,19 +4921,19 @@
         <v>15</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C160">
         <v>34.09</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>7.065</v>
+        <v>7.064</v>
       </c>
       <c r="F160">
-        <v>3.724</v>
+        <v>3.723</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4956,19 +4947,19 @@
         <v>15</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C161">
         <v>34.09</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>7.065</v>
+        <v>7.064</v>
       </c>
       <c r="F161">
-        <v>3.724</v>
+        <v>3.723</v>
       </c>
       <c r="G161">
         <v>0</v>
